--- a/assets/Overview_training_conditions.xlsx
+++ b/assets/Overview_training_conditions.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -588,10 +588,10 @@
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -606,10 +606,10 @@
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -621,10 +621,10 @@
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="R5" s="6" t="s">
@@ -1072,7 +1072,54 @@
       <c r="U13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="9"/>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
@@ -1080,6 +1127,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B14:Q14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFF6D"/>
+        <color rgb="FF77BC65"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/assets/Overview_training_conditions.xlsx
+++ b/assets/Overview_training_conditions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="45">
   <si>
     <t xml:space="preserve">CodeEmb</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">Pretrain-MLM</t>
   </si>
   <si>
+    <t xml:space="preserve">Scr</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLS-FT</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scr</t>
   </si>
   <si>
     <t xml:space="preserve">Scr-MLM</t>
@@ -164,11 +164,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -184,6 +185,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -289,8 +295,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -370,23 +376,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,14 +411,15 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="5"/>
+      <c r="S1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -448,21 +455,24 @@
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -504,11 +514,11 @@
         <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
@@ -516,6 +526,9 @@
         <v>18</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -547,7 +560,7 @@
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -556,12 +569,12 @@
       <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="O4" s="1" t="s">
         <v>22</v>
       </c>
@@ -571,7 +584,10 @@
       <c r="Q4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -603,7 +619,7 @@
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -612,11 +628,11 @@
       <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>24</v>
+      <c r="M5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -627,7 +643,10 @@
       <c r="Q5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -669,10 +688,10 @@
         <v>29</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>29</v>
@@ -681,6 +700,9 @@
         <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -712,31 +734,34 @@
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="L7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Q7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -762,15 +787,15 @@
       <c r="G8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K8" s="1" t="s">
         <v>27</v>
       </c>
@@ -792,7 +817,10 @@
       <c r="Q8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -818,12 +846,12 @@
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
@@ -848,7 +876,10 @@
       <c r="Q9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -881,14 +912,14 @@
         <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="M10" s="1" t="s">
         <v>27</v>
       </c>
@@ -896,18 +927,21 @@
         <v>27</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>27</v>
@@ -927,7 +961,7 @@
       <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -936,28 +970,31 @@
       <c r="J11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="M11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="O11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -983,7 +1020,7 @@
       <c r="G12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -995,12 +1032,12 @@
       <c r="K12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="N12" s="8" t="s">
         <v>40</v>
       </c>
@@ -1010,10 +1047,13 @@
       <c r="P12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="S12" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1069,7 +1109,10 @@
       <c r="Q13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -1081,7 +1124,7 @@
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="n">
@@ -1118,6 +1161,9 @@
         <v>1</v>
       </c>
       <c r="Q14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1127,7 +1173,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B14:Q14">
+  <conditionalFormatting sqref="B14:R14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/assets/Overview_training_conditions.xlsx
+++ b/assets/Overview_training_conditions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="47">
   <si>
     <t xml:space="preserve">CodeEmb</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t xml:space="preserve">[pooled]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eval_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset to evaluate on</t>
   </si>
   <si>
     <t xml:space="preserve">input_path</t>
@@ -164,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -185,11 +191,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -295,8 +296,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -376,13 +377,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
@@ -1020,7 +1021,7 @@
       <c r="G12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -1057,123 +1058,180 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="N13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" s="8"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A14" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B14:R14">
+  <conditionalFormatting sqref="B15:R15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
